--- a/Corpus.xlsx
+++ b/Corpus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/Nanterre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/Cartographie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC308C-BFF4-AA45-9BE0-C1BAF52FA3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E73700-1CAA-C34A-AC27-6E87DB72AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{D8599CB2-0F71-6449-9CFB-6C4F6E19665B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Théâtre français</t>
   </si>
@@ -1523,9 +1523,6 @@
       </rPr>
       <t xml:space="preserve"> (1618).</t>
     </r>
-  </si>
-  <si>
-    <t>Travailler par Géneration = 3: Rotrou super influencé par le SO; Corneille: francización de Lope; 3era: pasó por este filtro anterior</t>
   </si>
   <si>
     <r>
@@ -2800,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1090B56-D347-FA4D-A765-88946AD382BD}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="142" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2826,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2834,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2842,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2850,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2858,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2866,7 +2863,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2882,7 +2879,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2898,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2938,7 +2935,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2954,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2962,7 +2959,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2978,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2994,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3010,7 +3007,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3034,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3069,11 +3066,6 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
